--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tech Mahindra Ltd/Pruned_Excel/Semi_Final/Tech Mahindra Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tech Mahindra Ltd/Pruned_Excel/Semi_Final/Tech Mahindra Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
   <si>
     <t>Balance Sheet of Tech Mahindra(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,64 +62,67 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 05</t>
-  </si>
-  <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Tech Mahindra(in Rs. Cr.)</t>
@@ -215,9 +221,6 @@
     <t>Quarterly Results of Tech Mahindra(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,46 +278,7 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -744,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,824 +754,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>20.35</v>
-      </c>
-      <c r="C2">
-        <v>462.48</v>
       </c>
       <c r="D2">
         <v>462.48</v>
       </c>
       <c r="E2">
+        <v>462.48</v>
+      </c>
+      <c r="F2">
         <v>482.82</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>172.4</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>655.35</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>170.05</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>177.1</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>292.36</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>362.99</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>655.35</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>20.8</v>
-      </c>
-      <c r="C3">
-        <v>577.0599999999999</v>
       </c>
       <c r="D3">
         <v>577.0599999999999</v>
       </c>
       <c r="E3">
+        <v>577.0599999999999</v>
+      </c>
+      <c r="F3">
         <v>597.86</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>397.91</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>995.92</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>156.8</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>176.13</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>471.51</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>524.41</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>995.92</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>121.22</v>
-      </c>
-      <c r="C4">
-        <v>756.76</v>
       </c>
       <c r="D4">
         <v>756.76</v>
       </c>
       <c r="E4">
+        <v>756.76</v>
+      </c>
+      <c r="F4">
         <v>877.98</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>690.63</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1568.89</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>247.04</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>301.68</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>586.41</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>982.48</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1568.89</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>121.4</v>
-      </c>
-      <c r="C5">
-        <v>1107</v>
       </c>
       <c r="D5">
         <v>1107</v>
       </c>
       <c r="E5">
+        <v>1107</v>
+      </c>
+      <c r="F5">
         <v>1228.4</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>125</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>987.5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2216</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>290.9</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>429.4</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>729.5</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1486.5</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2216</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>121.7</v>
-      </c>
-      <c r="C6">
-        <v>1759.2</v>
       </c>
       <c r="D6">
         <v>1759.2</v>
       </c>
       <c r="E6">
+        <v>1759.2</v>
+      </c>
+      <c r="F6">
         <v>1880.9</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>170.7</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>870.8</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2751.8</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>482.5</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>644.2</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1113.2</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1638.6</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2751.8</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>122.3</v>
-      </c>
-      <c r="C7">
-        <v>2744.2</v>
       </c>
       <c r="D7">
         <v>2744.2</v>
       </c>
       <c r="E7">
+        <v>2744.2</v>
+      </c>
+      <c r="F7">
         <v>2866.5</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>121.1</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1204.5</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5836.5</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>586.4</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>914.8</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>4051</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1785.5</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>5836.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>126</v>
-      </c>
-      <c r="C8">
-        <v>3258</v>
       </c>
       <c r="D8">
         <v>3258</v>
       </c>
       <c r="E8">
+        <v>3258</v>
+      </c>
+      <c r="F8">
         <v>3384</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>532.4</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1529.5</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>6080.4</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>597</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>660.8</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>4239.2</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1841.2</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>6080.4</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>127.5</v>
-      </c>
-      <c r="C9">
-        <v>3315.7</v>
       </c>
       <c r="D9">
         <v>3315.7</v>
       </c>
       <c r="E9">
+        <v>3315.7</v>
+      </c>
+      <c r="F9">
         <v>3443.2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>566.9</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1700.7</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>6345.4</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>646.3</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>815.3</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>4364.5</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1980.9</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>6345.4</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>128.1</v>
-      </c>
-      <c r="C10">
-        <v>4054.4</v>
       </c>
       <c r="D10">
         <v>4054.4</v>
       </c>
       <c r="E10">
+        <v>4054.4</v>
+      </c>
+      <c r="F10">
         <v>4182.5</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>804.6</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2379.5</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>7258.5</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>713.3</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>748.5</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5100</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2158.5</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>7258.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>233.5</v>
-      </c>
-      <c r="C11">
-        <v>8355.1</v>
       </c>
       <c r="D11">
         <v>8355.1</v>
       </c>
       <c r="E11">
+        <v>8355.1</v>
+      </c>
+      <c r="F11">
         <v>8588.6</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1698</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4219.3</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>14739.2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1793.9</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2097.6</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>5658.8</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>9080.4</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>14739.2</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>480.4</v>
-      </c>
-      <c r="C12">
-        <v>10775.4</v>
       </c>
       <c r="D12">
         <v>10775.4</v>
       </c>
       <c r="E12">
+        <v>10775.4</v>
+      </c>
+      <c r="F12">
         <v>11255.8</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>890.3</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>4200.7</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>17016.5</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1948.5</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2532.1</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>7527.6</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>9488.9</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>17016.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>483.9</v>
-      </c>
-      <c r="C13">
-        <v>13068.3</v>
       </c>
       <c r="D13">
         <v>13068.3</v>
       </c>
       <c r="E13">
+        <v>13068.3</v>
+      </c>
+      <c r="F13">
         <v>13552.2</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1015.3</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>5348.4</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>20649.9</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2256.9</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2907.2</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>8376.299999999999</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>12273.6</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>20649.9</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>486.8</v>
-      </c>
-      <c r="C14">
-        <v>16401.5</v>
       </c>
       <c r="D14">
         <v>16401.5</v>
       </c>
       <c r="E14">
+        <v>16401.5</v>
+      </c>
+      <c r="F14">
         <v>16888.3</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2247.9</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4694.9</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>23732.8</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2427.6</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2860</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>10603.9</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>13128.9</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>23732.8</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>489.7</v>
-      </c>
-      <c r="C15">
-        <v>19049.1</v>
       </c>
       <c r="D15">
         <v>19049.1</v>
       </c>
       <c r="E15">
+        <v>19049.1</v>
+      </c>
+      <c r="F15">
         <v>19538.8</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2756.1</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>5025.7</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>26798.8</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2237.9</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>3465.8</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>12458.1</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>14340.7</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>26798.8</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>491.7</v>
-      </c>
-      <c r="C16">
-        <v>20153.7</v>
       </c>
       <c r="D16">
         <v>20153.7</v>
       </c>
       <c r="E16">
+        <v>20153.7</v>
+      </c>
+      <c r="F16">
         <v>20645.4</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4756.6</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>7844.3</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>30339.6</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1901.9</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>3056.8</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>12422.7</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>17916.9</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>30339.6</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>482.9</v>
-      </c>
-      <c r="C17">
-        <v>21377.6</v>
       </c>
       <c r="D17">
         <v>21377.6</v>
       </c>
       <c r="E17">
+        <v>21377.6</v>
+      </c>
+      <c r="F17">
         <v>22272.7</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3002.3</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>5713.8</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>30322</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2545.2</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>3370.9</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>12278.9</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>18043.1</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>30322</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>484.1</v>
-      </c>
-      <c r="C18">
-        <v>24526.6</v>
       </c>
       <c r="D18">
         <v>24526.6</v>
       </c>
       <c r="E18">
+        <v>24526.6</v>
+      </c>
+      <c r="F18">
         <v>25010.7</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3223.7</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>5961.3</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>33374.7</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2320.4</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>3159.1</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>13354.5</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>20020.2</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>33374.7</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>485.9</v>
-      </c>
-      <c r="C19">
-        <v>25359.7</v>
       </c>
       <c r="D19">
         <v>25359.7</v>
       </c>
       <c r="E19">
+        <v>25359.7</v>
+      </c>
+      <c r="F19">
         <v>25845.6</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3290.8</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>6636.4</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>35004.8</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2447.1</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>3306.6</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>18039.8</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>16965</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>35004.8</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>487.1</v>
-      </c>
-      <c r="C20">
-        <v>24334.2</v>
       </c>
       <c r="D20">
         <v>24334.2</v>
       </c>
       <c r="E20">
+        <v>24334.2</v>
+      </c>
+      <c r="F20">
         <v>24821.3</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>5137.4</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>9595.5</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>36035.2</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2723.1</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>3689</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>18691.3</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>17343.9</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>36035.2</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>488.4</v>
-      </c>
-      <c r="C21">
-        <v>22680.5</v>
       </c>
       <c r="D21">
         <v>22680.5</v>
       </c>
       <c r="E21">
+        <v>22680.5</v>
+      </c>
+      <c r="F21">
         <v>23168.9</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3637.4</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>8838.200000000001</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>34663.7</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2432.7</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>3318.7</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>17882.7</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>16781</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>34663.7</v>
       </c>
     </row>
@@ -1618,618 +1645,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>137.21</v>
+      </c>
+      <c r="D2">
+        <v>255.94</v>
+      </c>
+      <c r="E2">
+        <v>-128.25</v>
+      </c>
+      <c r="F2">
+        <v>-39.62</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="I2">
+        <v>34.28</v>
+      </c>
+      <c r="J2">
+        <v>122.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>240.64</v>
+      </c>
+      <c r="D3">
+        <v>133.47</v>
+      </c>
+      <c r="E3">
+        <v>-205.45</v>
+      </c>
+      <c r="F3">
+        <v>-0.73</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>-72.7</v>
+      </c>
+      <c r="I3">
+        <v>122.35</v>
+      </c>
+      <c r="J3">
+        <v>49.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>651.6799999999999</v>
+      </c>
+      <c r="D4">
+        <v>3.24</v>
+      </c>
+      <c r="E4">
+        <v>-142.36</v>
+      </c>
+      <c r="F4">
+        <v>122.71</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-16.42</v>
+      </c>
+      <c r="I4">
+        <v>49.65</v>
+      </c>
+      <c r="J4">
+        <v>33.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>834.7</v>
+      </c>
+      <c r="D5">
+        <v>209.7</v>
+      </c>
+      <c r="E5">
+        <v>-198.3</v>
+      </c>
+      <c r="F5">
+        <v>35.6</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>47</v>
+      </c>
+      <c r="I5">
+        <v>29.5</v>
+      </c>
+      <c r="J5">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>1090.5</v>
+      </c>
+      <c r="D6">
+        <v>1200.3</v>
+      </c>
+      <c r="E6">
+        <v>-620.4</v>
+      </c>
+      <c r="F6">
+        <v>-164.5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>415.4</v>
+      </c>
+      <c r="I6">
+        <v>76.5</v>
+      </c>
+      <c r="J6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>874.2</v>
+      </c>
+      <c r="D7">
+        <v>1412.5</v>
+      </c>
+      <c r="E7">
+        <v>-2571</v>
+      </c>
+      <c r="F7">
+        <v>803.8</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-354.7</v>
+      </c>
+      <c r="I7">
+        <v>494.3</v>
+      </c>
+      <c r="J7">
+        <v>139.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>806</v>
+      </c>
+      <c r="D8">
+        <v>470.6</v>
+      </c>
+      <c r="E8">
+        <v>-131.7</v>
+      </c>
+      <c r="F8">
+        <v>-286.7</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>52.2</v>
+      </c>
+      <c r="I8">
+        <v>139.6</v>
+      </c>
+      <c r="J8">
+        <v>191.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>646.9</v>
+      </c>
+      <c r="D9">
+        <v>665.4</v>
+      </c>
+      <c r="E9">
+        <v>-400.9</v>
+      </c>
+      <c r="F9">
+        <v>-321.6</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-57.1</v>
+      </c>
+      <c r="I9">
+        <v>191.8</v>
+      </c>
+      <c r="J9">
+        <v>134.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>817.2</v>
+      </c>
+      <c r="D10">
+        <v>642.7</v>
+      </c>
+      <c r="E10">
+        <v>-595.4</v>
+      </c>
+      <c r="F10">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>136.2</v>
+      </c>
+      <c r="I10">
+        <v>134.7</v>
+      </c>
+      <c r="J10">
+        <v>270.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>3117.8</v>
+      </c>
+      <c r="D11">
+        <v>1294.2</v>
+      </c>
+      <c r="E11">
+        <v>-455</v>
+      </c>
+      <c r="F11">
+        <v>-917.4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2018.2</v>
+      </c>
+      <c r="I11">
+        <v>270.3</v>
+      </c>
+      <c r="J11">
+        <v>2288.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>2930.5</v>
+      </c>
+      <c r="D12">
+        <v>2068.5</v>
+      </c>
+      <c r="E12">
+        <v>-1701.7</v>
+      </c>
+      <c r="F12">
+        <v>-731</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>-299.3</v>
+      </c>
+      <c r="I12">
+        <v>999.6</v>
+      </c>
+      <c r="J12">
+        <v>700.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>3923.3</v>
+      </c>
+      <c r="D13">
+        <v>2882.8</v>
+      </c>
+      <c r="E13">
+        <v>-1088.9</v>
+      </c>
+      <c r="F13">
+        <v>-791.8</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1007.6</v>
+      </c>
+      <c r="I13">
+        <v>700.3</v>
+      </c>
+      <c r="J13">
+        <v>1707.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>3878.7</v>
+      </c>
+      <c r="D14">
+        <v>3332.2</v>
+      </c>
+      <c r="E14">
+        <v>-2586.5</v>
+      </c>
+      <c r="F14">
+        <v>-1478.8</v>
+      </c>
+      <c r="G14">
+        <v>-3.2</v>
+      </c>
+      <c r="H14">
+        <v>-736.3</v>
+      </c>
+      <c r="I14">
+        <v>1708</v>
+      </c>
+      <c r="J14">
+        <v>971.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>4906.5</v>
+      </c>
+      <c r="D15">
+        <v>3358.3</v>
+      </c>
+      <c r="E15">
+        <v>-2271.1</v>
+      </c>
+      <c r="F15">
+        <v>-1209.5</v>
+      </c>
+      <c r="G15">
+        <v>38.8</v>
+      </c>
+      <c r="H15">
+        <v>-83.5</v>
+      </c>
+      <c r="I15">
+        <v>971.7</v>
+      </c>
+      <c r="J15">
+        <v>888.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>5427.3</v>
+      </c>
+      <c r="D16">
+        <v>3634.4</v>
+      </c>
+      <c r="E16">
+        <v>-1542.5</v>
+      </c>
+      <c r="F16">
+        <v>-2035.9</v>
+      </c>
+      <c r="G16">
+        <v>12.9</v>
+      </c>
+      <c r="H16">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="I16">
+        <v>889.2</v>
+      </c>
+      <c r="J16">
+        <v>958.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>5332.2</v>
+      </c>
+      <c r="D17">
+        <v>2380.4</v>
+      </c>
+      <c r="E17">
+        <v>3252.1</v>
+      </c>
+      <c r="F17">
+        <v>-4842.4</v>
+      </c>
+      <c r="G17">
+        <v>53.8</v>
+      </c>
+      <c r="H17">
+        <v>843.9</v>
+      </c>
+      <c r="I17">
+        <v>959.9</v>
+      </c>
+      <c r="J17">
+        <v>1803.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>5526.6</v>
+      </c>
+      <c r="D18">
+        <v>6851.9</v>
+      </c>
+      <c r="E18">
+        <v>-5620.8</v>
+      </c>
+      <c r="F18">
+        <v>-2066.1</v>
+      </c>
+      <c r="G18">
+        <v>19.2</v>
+      </c>
+      <c r="H18">
+        <v>-815.8</v>
+      </c>
+      <c r="I18">
+        <v>1803.8</v>
+      </c>
+      <c r="J18">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>6284.6</v>
+      </c>
+      <c r="D19">
+        <v>2969.4</v>
+      </c>
+      <c r="E19">
+        <v>1672.2</v>
+      </c>
+      <c r="F19">
+        <v>-4457.1</v>
+      </c>
+      <c r="G19">
+        <v>21.9</v>
+      </c>
+      <c r="H19">
+        <v>206.4</v>
+      </c>
+      <c r="I19">
+        <v>988</v>
+      </c>
+      <c r="J19">
+        <v>1194.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>4904.1</v>
+      </c>
+      <c r="D20">
+        <v>4102.1</v>
+      </c>
+      <c r="E20">
+        <v>676.8</v>
+      </c>
+      <c r="F20">
+        <v>-4991.5</v>
+      </c>
+      <c r="G20">
+        <v>57.1</v>
+      </c>
+      <c r="H20">
+        <v>-155.5</v>
+      </c>
+      <c r="I20">
+        <v>1249.5</v>
+      </c>
+      <c r="J20">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>137.21</v>
-      </c>
-      <c r="C2">
-        <v>255.94</v>
-      </c>
-      <c r="D2">
-        <v>-128.25</v>
-      </c>
-      <c r="E2">
-        <v>-39.62</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>88.06999999999999</v>
-      </c>
-      <c r="H2">
-        <v>34.28</v>
-      </c>
-      <c r="I2">
-        <v>122.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>240.64</v>
-      </c>
-      <c r="C3">
-        <v>133.47</v>
-      </c>
-      <c r="D3">
-        <v>-205.45</v>
-      </c>
-      <c r="E3">
-        <v>-0.73</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>-72.7</v>
-      </c>
-      <c r="H3">
-        <v>122.35</v>
-      </c>
-      <c r="I3">
-        <v>49.65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>651.6799999999999</v>
-      </c>
-      <c r="C4">
-        <v>3.24</v>
-      </c>
-      <c r="D4">
-        <v>-142.36</v>
-      </c>
-      <c r="E4">
-        <v>122.71</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>-16.42</v>
-      </c>
-      <c r="H4">
-        <v>49.65</v>
-      </c>
-      <c r="I4">
-        <v>33.23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>834.7</v>
-      </c>
-      <c r="C5">
-        <v>209.7</v>
-      </c>
-      <c r="D5">
-        <v>-198.3</v>
-      </c>
-      <c r="E5">
-        <v>35.6</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>47</v>
-      </c>
-      <c r="H5">
-        <v>29.5</v>
-      </c>
-      <c r="I5">
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>1090.5</v>
-      </c>
-      <c r="C6">
-        <v>1200.3</v>
-      </c>
-      <c r="D6">
-        <v>-620.4</v>
-      </c>
-      <c r="E6">
-        <v>-164.5</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>415.4</v>
-      </c>
-      <c r="H6">
-        <v>76.5</v>
-      </c>
-      <c r="I6">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>874.2</v>
-      </c>
-      <c r="C7">
-        <v>1412.5</v>
-      </c>
-      <c r="D7">
-        <v>-2571</v>
-      </c>
-      <c r="E7">
-        <v>803.8</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>-354.7</v>
-      </c>
-      <c r="H7">
-        <v>494.3</v>
-      </c>
-      <c r="I7">
-        <v>139.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>806</v>
-      </c>
-      <c r="C8">
-        <v>470.6</v>
-      </c>
-      <c r="D8">
-        <v>-131.7</v>
-      </c>
-      <c r="E8">
-        <v>-286.7</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>52.2</v>
-      </c>
-      <c r="H8">
-        <v>139.6</v>
-      </c>
-      <c r="I8">
-        <v>191.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>646.9</v>
-      </c>
-      <c r="C9">
-        <v>665.4</v>
-      </c>
-      <c r="D9">
-        <v>-400.9</v>
-      </c>
-      <c r="E9">
-        <v>-321.6</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>-57.1</v>
-      </c>
-      <c r="H9">
-        <v>191.8</v>
-      </c>
-      <c r="I9">
-        <v>134.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>817.2</v>
-      </c>
-      <c r="C10">
-        <v>642.7</v>
-      </c>
-      <c r="D10">
-        <v>-595.4</v>
-      </c>
-      <c r="E10">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>136.2</v>
-      </c>
-      <c r="H10">
-        <v>134.7</v>
-      </c>
-      <c r="I10">
-        <v>270.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>3117.8</v>
-      </c>
-      <c r="C11">
-        <v>1294.2</v>
-      </c>
-      <c r="D11">
-        <v>-455</v>
-      </c>
-      <c r="E11">
-        <v>-917.4</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>2018.2</v>
-      </c>
-      <c r="H11">
-        <v>270.3</v>
-      </c>
-      <c r="I11">
-        <v>2288.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>2930.5</v>
-      </c>
-      <c r="C12">
-        <v>2068.5</v>
-      </c>
-      <c r="D12">
-        <v>-1701.7</v>
-      </c>
-      <c r="E12">
-        <v>-731</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>-299.3</v>
-      </c>
-      <c r="H12">
-        <v>999.6</v>
-      </c>
-      <c r="I12">
-        <v>700.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>3923.3</v>
-      </c>
-      <c r="C13">
-        <v>2882.8</v>
-      </c>
-      <c r="D13">
-        <v>-1088.9</v>
-      </c>
-      <c r="E13">
-        <v>-791.8</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1007.6</v>
-      </c>
-      <c r="H13">
-        <v>700.3</v>
-      </c>
-      <c r="I13">
-        <v>1707.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>3878.7</v>
-      </c>
-      <c r="C14">
-        <v>3332.2</v>
-      </c>
-      <c r="D14">
-        <v>-2586.5</v>
-      </c>
-      <c r="E14">
-        <v>-1478.8</v>
-      </c>
-      <c r="F14">
-        <v>-3.2</v>
-      </c>
-      <c r="G14">
-        <v>-736.3</v>
-      </c>
-      <c r="H14">
-        <v>1708</v>
-      </c>
-      <c r="I14">
-        <v>971.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>4906.5</v>
-      </c>
-      <c r="C15">
-        <v>3358.3</v>
-      </c>
-      <c r="D15">
-        <v>-2271.1</v>
-      </c>
-      <c r="E15">
-        <v>-1209.5</v>
-      </c>
-      <c r="F15">
-        <v>38.8</v>
-      </c>
-      <c r="G15">
-        <v>-83.5</v>
-      </c>
-      <c r="H15">
-        <v>971.7</v>
-      </c>
-      <c r="I15">
-        <v>888.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>5427.3</v>
-      </c>
-      <c r="C16">
-        <v>3634.4</v>
-      </c>
-      <c r="D16">
-        <v>-1542.5</v>
-      </c>
-      <c r="E16">
-        <v>-2035.9</v>
-      </c>
-      <c r="F16">
-        <v>12.9</v>
-      </c>
-      <c r="G16">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="H16">
-        <v>889.2</v>
-      </c>
-      <c r="I16">
-        <v>958.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>5332.2</v>
-      </c>
-      <c r="C17">
-        <v>2380.4</v>
-      </c>
-      <c r="D17">
-        <v>3252.1</v>
-      </c>
-      <c r="E17">
-        <v>-4842.4</v>
-      </c>
-      <c r="F17">
-        <v>53.8</v>
-      </c>
-      <c r="G17">
-        <v>843.9</v>
-      </c>
-      <c r="H17">
-        <v>959.9</v>
-      </c>
-      <c r="I17">
-        <v>1803.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>5526.6</v>
-      </c>
-      <c r="C18">
-        <v>6851.9</v>
-      </c>
-      <c r="D18">
-        <v>-5620.8</v>
-      </c>
-      <c r="E18">
-        <v>-2066.1</v>
-      </c>
-      <c r="F18">
-        <v>19.2</v>
-      </c>
-      <c r="G18">
-        <v>-815.8</v>
-      </c>
-      <c r="H18">
-        <v>1803.8</v>
-      </c>
-      <c r="I18">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>6284.6</v>
-      </c>
-      <c r="C19">
-        <v>2969.4</v>
-      </c>
-      <c r="D19">
-        <v>1672.2</v>
-      </c>
-      <c r="E19">
-        <v>-4457.1</v>
-      </c>
-      <c r="F19">
-        <v>21.9</v>
-      </c>
-      <c r="G19">
-        <v>206.4</v>
-      </c>
-      <c r="H19">
-        <v>988</v>
-      </c>
-      <c r="I19">
-        <v>1194.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>4904.1</v>
-      </c>
-      <c r="C20">
-        <v>4102.1</v>
-      </c>
-      <c r="D20">
-        <v>676.8</v>
-      </c>
-      <c r="E20">
-        <v>-4991.5</v>
-      </c>
-      <c r="F20">
-        <v>57.1</v>
-      </c>
-      <c r="G20">
-        <v>-155.5</v>
-      </c>
-      <c r="H20">
-        <v>1249.5</v>
-      </c>
-      <c r="I20">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>2564.7</v>
+      </c>
+      <c r="D21">
+        <v>5005.3</v>
+      </c>
+      <c r="E21">
+        <v>47.2</v>
+      </c>
+      <c r="F21">
+        <v>-4727.3</v>
+      </c>
+      <c r="G21">
+        <v>-4</v>
+      </c>
+      <c r="H21">
+        <v>321.2</v>
+      </c>
+      <c r="I21">
         <v>1094</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>2564.7</v>
-      </c>
-      <c r="C21">
-        <v>5005.3</v>
-      </c>
-      <c r="D21">
-        <v>47.2</v>
-      </c>
-      <c r="E21">
-        <v>-4727.3</v>
-      </c>
-      <c r="F21">
-        <v>-4</v>
-      </c>
-      <c r="G21">
-        <v>321.2</v>
-      </c>
-      <c r="H21">
-        <v>1094</v>
-      </c>
-      <c r="I21">
+      <c r="J21">
         <v>1415.2</v>
       </c>
     </row>
@@ -2240,86 +2330,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>922.34</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2">
         <v>922.34</v>
@@ -2328,66 +2421,69 @@
         <v>922.34</v>
       </c>
       <c r="E2">
+        <v>922.34</v>
+      </c>
+      <c r="F2">
         <v>6.05</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>928.39</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>97.76000000000001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>353.73</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>31.53</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>303.48</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>791.1900000000001</v>
-      </c>
-      <c r="M2">
-        <v>137.19</v>
       </c>
       <c r="N2">
         <v>137.19</v>
       </c>
       <c r="O2">
+        <v>137.19</v>
+      </c>
+      <c r="P2">
         <v>14.22</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.06</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>14.28</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>122.91</v>
-      </c>
-      <c r="S2">
-        <v>71.09</v>
       </c>
       <c r="T2">
         <v>71.09</v>
       </c>
       <c r="U2">
-        <v>6.99</v>
+        <v>71.09</v>
       </c>
       <c r="V2">
         <v>6.99</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>1197.14</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
         <v>1197.14</v>
@@ -2396,66 +2492,69 @@
         <v>1197.14</v>
       </c>
       <c r="E3">
+        <v>1197.14</v>
+      </c>
+      <c r="F3">
         <v>27.44</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1224.58</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>195.5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>467.58</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>37.38</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>279.86</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>987.1</v>
-      </c>
-      <c r="M3">
-        <v>237.49</v>
       </c>
       <c r="N3">
         <v>237.49</v>
       </c>
       <c r="O3">
+        <v>237.49</v>
+      </c>
+      <c r="P3">
         <v>17.49</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.29</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>20.52</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>216.96</v>
-      </c>
-      <c r="S3">
-        <v>220.12</v>
       </c>
       <c r="T3">
         <v>220.12</v>
       </c>
       <c r="U3">
-        <v>21.17</v>
+        <v>220.12</v>
       </c>
       <c r="V3">
         <v>21.17</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>21.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>2753.22</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
       <c r="C4">
         <v>2753.22</v>
@@ -2464,66 +2563,69 @@
         <v>2753.22</v>
       </c>
       <c r="E4">
+        <v>2753.22</v>
+      </c>
+      <c r="F4">
         <v>5.18</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2758.4</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>559.86</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>840.41</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>6.92</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>46.28</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>638.42</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2106.72</v>
-      </c>
-      <c r="M4">
-        <v>651.6799999999999</v>
       </c>
       <c r="N4">
         <v>651.6799999999999</v>
       </c>
       <c r="O4">
+        <v>651.6799999999999</v>
+      </c>
+      <c r="P4">
         <v>57.3</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-0.89</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>61.51</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>590.17</v>
-      </c>
-      <c r="S4">
-        <v>99.18000000000001</v>
       </c>
       <c r="T4">
         <v>99.18000000000001</v>
       </c>
       <c r="U4">
-        <v>8.18</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="V4">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>3604.7</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
         <v>3604.7</v>
@@ -2532,66 +2634,69 @@
         <v>3604.7</v>
       </c>
       <c r="E5">
+        <v>3604.7</v>
+      </c>
+      <c r="F5">
         <v>88.3</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3693</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>729.5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1222.4</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>10</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>73.59999999999999</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>831.7</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2867.2</v>
-      </c>
-      <c r="M5">
-        <v>825.8</v>
       </c>
       <c r="N5">
         <v>825.8</v>
       </c>
       <c r="O5">
+        <v>825.8</v>
+      </c>
+      <c r="P5">
         <v>62</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>68.90000000000001</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>756.9</v>
-      </c>
-      <c r="S5">
-        <v>342.2</v>
       </c>
       <c r="T5">
         <v>342.2</v>
       </c>
       <c r="U5">
-        <v>28.19</v>
+        <v>342.2</v>
       </c>
       <c r="V5">
         <v>28.19</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>28.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>4357.8</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>4357.8</v>
@@ -2600,66 +2705,69 @@
         <v>4357.8</v>
       </c>
       <c r="E6">
+        <v>4357.8</v>
+      </c>
+      <c r="F6">
         <v>-61.7</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4296.1</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>966.1</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1419.7</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2.5</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>107.4</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>721.7</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>3217.4</v>
-      </c>
-      <c r="M6">
-        <v>1078.7</v>
       </c>
       <c r="N6">
         <v>1078.7</v>
       </c>
       <c r="O6">
+        <v>1078.7</v>
+      </c>
+      <c r="P6">
         <v>108.6</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-12.7</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>103.9</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>974.8</v>
-      </c>
-      <c r="S6">
-        <v>986.6</v>
       </c>
       <c r="T6">
         <v>986.6</v>
       </c>
       <c r="U6">
-        <v>81.06999999999999</v>
+        <v>986.6</v>
       </c>
       <c r="V6">
         <v>81.06999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>81.06999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>4483.8</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
         <v>4483.8</v>
@@ -2668,66 +2776,69 @@
         <v>4483.8</v>
       </c>
       <c r="E7">
+        <v>4483.8</v>
+      </c>
+      <c r="F7">
         <v>67</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4550.8</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1176</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1598.7</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>155.2</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>129.9</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>632.2</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3692</v>
-      </c>
-      <c r="M7">
-        <v>858.8</v>
       </c>
       <c r="N7">
         <v>858.8</v>
       </c>
       <c r="O7">
+        <v>858.8</v>
+      </c>
+      <c r="P7">
         <v>138.2</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-6.8</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>131.4</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>727.4</v>
-      </c>
-      <c r="S7">
-        <v>742.8</v>
       </c>
       <c r="T7">
         <v>742.8</v>
       </c>
       <c r="U7">
-        <v>60.74</v>
+        <v>742.8</v>
       </c>
       <c r="V7">
         <v>60.74</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>60.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>4965.5</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <v>4965.5</v>
@@ -2736,46 +2847,46 @@
         <v>4965.5</v>
       </c>
       <c r="E8">
+        <v>4965.5</v>
+      </c>
+      <c r="F8">
         <v>126.6</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5092.1</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1412</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1943.8</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>111.3</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>138.3</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>680.7</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>4286.1</v>
-      </c>
-      <c r="M8">
-        <v>806</v>
       </c>
       <c r="N8">
         <v>806</v>
       </c>
       <c r="O8">
+        <v>806</v>
+      </c>
+      <c r="P8">
         <v>140.2</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-30.9</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>109.3</v>
-      </c>
-      <c r="R8">
-        <v>696.7</v>
       </c>
       <c r="S8">
         <v>696.7</v>
@@ -2784,18 +2895,21 @@
         <v>696.7</v>
       </c>
       <c r="U8">
+        <v>696.7</v>
+      </c>
+      <c r="V8">
         <v>55.81</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>53.36</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>5243</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
       </c>
       <c r="C9">
         <v>5243</v>
@@ -2804,46 +2918,46 @@
         <v>5243</v>
       </c>
       <c r="E9">
+        <v>5243</v>
+      </c>
+      <c r="F9">
         <v>67.7</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5310.7</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1414.8</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2251</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>102.5</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>150.5</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>745</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4663.8</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>646.9</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>579</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>147.2</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-28.8</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>118.4</v>
-      </c>
-      <c r="R9">
-        <v>460.6</v>
       </c>
       <c r="S9">
         <v>460.6</v>
@@ -2852,18 +2966,21 @@
         <v>460.6</v>
       </c>
       <c r="U9">
+        <v>460.6</v>
+      </c>
+      <c r="V9">
         <v>36.27</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>34.86</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>6001.9</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>6001.9</v>
@@ -2872,46 +2989,46 @@
         <v>6001.9</v>
       </c>
       <c r="E10">
+        <v>6001.9</v>
+      </c>
+      <c r="F10">
         <v>-95.2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>5906.7</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1674.3</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2513.8</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>109</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>157</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>635.4</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>5089.5</v>
-      </c>
-      <c r="M10">
-        <v>817.2</v>
       </c>
       <c r="N10">
         <v>817.2</v>
       </c>
       <c r="O10">
+        <v>817.2</v>
+      </c>
+      <c r="P10">
         <v>177.1</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-12.4</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>164.7</v>
-      </c>
-      <c r="R10">
-        <v>652.5</v>
       </c>
       <c r="S10">
         <v>652.5</v>
@@ -2920,18 +3037,21 @@
         <v>652.5</v>
       </c>
       <c r="U10">
+        <v>652.5</v>
+      </c>
+      <c r="V10">
         <v>51.1</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>48.99</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>16295.1</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11">
         <v>16295.1</v>
@@ -2940,66 +3060,69 @@
         <v>16295.1</v>
       </c>
       <c r="E11">
+        <v>16295.1</v>
+      </c>
+      <c r="F11">
         <v>70.3</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>16365.4</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3401.2</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>6971.5</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>86.8</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>427</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>2361.1</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>13247.6</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>3117.8</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>3237.8</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>843.3</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-64.40000000000001</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>778.9</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>2458.9</v>
-      </c>
-      <c r="S11">
-        <v>2685.5</v>
       </c>
       <c r="T11">
         <v>2685.5</v>
       </c>
       <c r="U11">
+        <v>2685.5</v>
+      </c>
+      <c r="V11">
         <v>115.49</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>112.41</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>19162.7</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
         <v>19162.7</v>
@@ -3008,46 +3131,46 @@
         <v>19162.7</v>
       </c>
       <c r="E12">
+        <v>19162.7</v>
+      </c>
+      <c r="F12">
         <v>124.5</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>19287.2</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>6910.7</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>7201.2</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>8.6</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>473.3</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1824.2</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>16418</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2869.2</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2930.5</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>648.7</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>25.6</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>674.3</v>
-      </c>
-      <c r="R12">
-        <v>2256.2</v>
       </c>
       <c r="S12">
         <v>2256.2</v>
@@ -3056,18 +3179,21 @@
         <v>2256.2</v>
       </c>
       <c r="U12">
+        <v>2256.2</v>
+      </c>
+      <c r="V12">
         <v>23.58</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>22.96</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>20969.8</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <v>20969.8</v>
@@ -3076,46 +3202,46 @@
         <v>20969.8</v>
       </c>
       <c r="E13">
+        <v>20969.8</v>
+      </c>
+      <c r="F13">
         <v>1108.4</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>22078.2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>594</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>7410.1</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>53.3</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>545.5</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>9552</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>18154.9</v>
-      </c>
-      <c r="M13">
-        <v>3923.3</v>
       </c>
       <c r="N13">
         <v>3923.3</v>
       </c>
       <c r="O13">
+        <v>3923.3</v>
+      </c>
+      <c r="P13">
         <v>794.1</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-90.8</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>703.3</v>
-      </c>
-      <c r="R13">
-        <v>3220</v>
       </c>
       <c r="S13">
         <v>3220</v>
@@ -3124,18 +3250,21 @@
         <v>3220</v>
       </c>
       <c r="U13">
+        <v>3220</v>
+      </c>
+      <c r="V13">
         <v>33.4</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>32.71</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>23165.4</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
       <c r="C14">
         <v>23165.4</v>
@@ -3144,46 +3273,46 @@
         <v>23165.4</v>
       </c>
       <c r="E14">
+        <v>23165.4</v>
+      </c>
+      <c r="F14">
         <v>892.9</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>24058.3</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>8756.9</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>7744.4</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>63.8</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>622.2</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2992.3</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>20179.6</v>
-      </c>
-      <c r="M14">
-        <v>3878.7</v>
       </c>
       <c r="N14">
         <v>3878.7</v>
       </c>
       <c r="O14">
+        <v>3878.7</v>
+      </c>
+      <c r="P14">
         <v>723</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>108.4</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>831.4</v>
-      </c>
-      <c r="R14">
-        <v>3047.3</v>
       </c>
       <c r="S14">
         <v>3047.3</v>
@@ -3192,18 +3321,21 @@
         <v>3047.3</v>
       </c>
       <c r="U14">
+        <v>3047.3</v>
+      </c>
+      <c r="V14">
         <v>31.37</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>30.94</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>23661.2</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
       <c r="C15">
         <v>23661.2</v>
@@ -3212,46 +3344,46 @@
         <v>23661.2</v>
       </c>
       <c r="E15">
+        <v>23661.2</v>
+      </c>
+      <c r="F15">
         <v>1730.7</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>25391.9</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>9012.9</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>8106.5</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>70.8</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>656.2</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2639</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>20485.4</v>
-      </c>
-      <c r="M15">
-        <v>4906.5</v>
       </c>
       <c r="N15">
         <v>4906.5</v>
       </c>
       <c r="O15">
+        <v>4906.5</v>
+      </c>
+      <c r="P15">
         <v>931.6</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-24.4</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>907.2</v>
-      </c>
-      <c r="R15">
-        <v>3999.3</v>
       </c>
       <c r="S15">
         <v>3999.3</v>
@@ -3260,18 +3392,21 @@
         <v>3999.3</v>
       </c>
       <c r="U15">
+        <v>3999.3</v>
+      </c>
+      <c r="V15">
         <v>40.84</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>40.53</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>27219.6</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
         <v>27219.6</v>
@@ -3280,46 +3415,46 @@
         <v>27219.6</v>
       </c>
       <c r="E16">
+        <v>27219.6</v>
+      </c>
+      <c r="F16">
         <v>960.1</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>28179.7</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>10257</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>8444</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>43.1</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>658.7</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3349.6</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>22752.4</v>
-      </c>
-      <c r="M16">
-        <v>5427.3</v>
       </c>
       <c r="N16">
         <v>5427.3</v>
       </c>
       <c r="O16">
+        <v>5427.3</v>
+      </c>
+      <c r="P16">
         <v>1065.2</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-18.3</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1046.9</v>
-      </c>
-      <c r="R16">
-        <v>4380.4</v>
       </c>
       <c r="S16">
         <v>4380.4</v>
@@ -3328,18 +3463,21 @@
         <v>4380.4</v>
       </c>
       <c r="U16">
+        <v>4380.4</v>
+      </c>
+      <c r="V16">
         <v>44.58</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>43.93</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>29225.4</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <v>29225.4</v>
@@ -3348,46 +3486,46 @@
         <v>29225.4</v>
       </c>
       <c r="E17">
+        <v>29225.4</v>
+      </c>
+      <c r="F17">
         <v>2366.2</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>31591.6</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>11607.4</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>9282.700000000001</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>66.7</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>667.4</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>4079.8</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>26259.4</v>
-      </c>
-      <c r="M17">
-        <v>5332.2</v>
       </c>
       <c r="N17">
         <v>5332.2</v>
       </c>
       <c r="O17">
+        <v>5332.2</v>
+      </c>
+      <c r="P17">
         <v>881.3</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-83.59999999999999</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>797.7</v>
-      </c>
-      <c r="R17">
-        <v>4534.5</v>
       </c>
       <c r="S17">
         <v>4534.5</v>
@@ -3396,18 +3534,21 @@
         <v>4534.5</v>
       </c>
       <c r="U17">
+        <v>4534.5</v>
+      </c>
+      <c r="V17">
         <v>46.89</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>46.56</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>29640.9</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
       <c r="C18">
         <v>29640.9</v>
@@ -3416,46 +3557,46 @@
         <v>29640.9</v>
       </c>
       <c r="E18">
+        <v>29640.9</v>
+      </c>
+      <c r="F18">
         <v>921.8</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>30562.7</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>11320.6</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>9162.6</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>63.2</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>662.3</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>3683.5</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>25036.1</v>
-      </c>
-      <c r="M18">
-        <v>5526.6</v>
       </c>
       <c r="N18">
         <v>5526.6</v>
       </c>
       <c r="O18">
+        <v>5526.6</v>
+      </c>
+      <c r="P18">
         <v>1360.4</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-72.90000000000001</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1287.5</v>
-      </c>
-      <c r="R18">
-        <v>4239.1</v>
       </c>
       <c r="S18">
         <v>4239.1</v>
@@ -3464,18 +3605,21 @@
         <v>4239.1</v>
       </c>
       <c r="U18">
+        <v>4239.1</v>
+      </c>
+      <c r="V18">
         <v>43.76</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>43.41</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>34726.1</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19">
         <v>34726.1</v>
@@ -3484,46 +3628,46 @@
         <v>34726.1</v>
       </c>
       <c r="E19">
+        <v>34726.1</v>
+      </c>
+      <c r="F19">
         <v>1522.8</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>36248.9</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>13858.8</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>11054.2</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>63.6</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>659.9</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3860.9</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>29964.3</v>
-      </c>
-      <c r="M19">
-        <v>6284.6</v>
       </c>
       <c r="N19">
         <v>6284.6</v>
       </c>
       <c r="O19">
+        <v>6284.6</v>
+      </c>
+      <c r="P19">
         <v>1240.9</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>130.6</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1371.5</v>
-      </c>
-      <c r="R19">
-        <v>4913.1</v>
       </c>
       <c r="S19">
         <v>4913.1</v>
@@ -3532,18 +3676,21 @@
         <v>4913.1</v>
       </c>
       <c r="U19">
+        <v>4913.1</v>
+      </c>
+      <c r="V19">
         <v>50.48</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>50.11</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>42657.3</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>42657.3</v>
@@ -3552,46 +3699,46 @@
         <v>42657.3</v>
       </c>
       <c r="E20">
+        <v>42657.3</v>
+      </c>
+      <c r="F20">
         <v>1128.3</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>43785.6</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>17036.8</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>14969.3</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>180.8</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>812.9</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>5330.9</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>38881.5</v>
-      </c>
-      <c r="M20">
-        <v>4904.1</v>
       </c>
       <c r="N20">
         <v>4904.1</v>
       </c>
       <c r="O20">
+        <v>4904.1</v>
+      </c>
+      <c r="P20">
         <v>1202.7</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-76.09999999999999</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>1126.6</v>
-      </c>
-      <c r="R20">
-        <v>3777.5</v>
       </c>
       <c r="S20">
         <v>3777.5</v>
@@ -3600,18 +3747,21 @@
         <v>3777.5</v>
       </c>
       <c r="U20">
+        <v>3777.5</v>
+      </c>
+      <c r="V20">
         <v>38.69</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>38.54</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>42099.3</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21">
         <v>42099.3</v>
@@ -3620,46 +3770,46 @@
         <v>42099.3</v>
       </c>
       <c r="E21">
+        <v>42099.3</v>
+      </c>
+      <c r="F21">
         <v>1252.5</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>43351.8</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>16688.6</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>16082.3</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>246.4</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>814.9</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>6661.8</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>40787.1</v>
-      </c>
-      <c r="M21">
-        <v>2564.7</v>
       </c>
       <c r="N21">
         <v>2564.7</v>
       </c>
       <c r="O21">
+        <v>2564.7</v>
+      </c>
+      <c r="P21">
         <v>622.9</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-186.8</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>436.1</v>
-      </c>
-      <c r="R21">
-        <v>2128.6</v>
       </c>
       <c r="S21">
         <v>2128.6</v>
@@ -3668,9 +3818,12 @@
         <v>2128.6</v>
       </c>
       <c r="U21">
+        <v>2128.6</v>
+      </c>
+      <c r="V21">
         <v>21.75</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>21.69</v>
       </c>
     </row>
@@ -3689,84 +3842,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>4215.78</v>
@@ -3831,13 +3984,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>4370.24</v>
@@ -3902,13 +4055,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>4512.41</v>
@@ -3973,13 +4126,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>4803.6</v>
@@ -4044,13 +4197,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>5034.81</v>
@@ -4115,13 +4268,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>4707.15</v>
@@ -4186,13 +4339,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>87</v>
       </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>5016.31</v>
@@ -4257,13 +4410,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>5259.91</v>
@@ -4328,13 +4481,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>5226.74</v>
@@ -4399,13 +4552,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>5466.81</v>
@@ -4470,13 +4623,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>5646.76</v>
@@ -4541,13 +4694,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>5682.19</v>
@@ -4612,13 +4765,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>5912.86</v>
@@ -4683,13 +4836,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>5923.58</v>
@@ -4754,13 +4907,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>5753.54</v>
@@ -4825,13 +4978,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>5919.37</v>
@@ -4896,13 +5049,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
       <c r="D18">
         <v>5967.71</v>
@@ -4967,13 +5120,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>90</v>
-      </c>
-      <c r="B19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
       </c>
       <c r="D19">
         <v>6020.57</v>
@@ -5038,13 +5191,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>6286.85</v>
@@ -5109,13 +5262,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>6870.86</v>
@@ -5180,13 +5333,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>6989.7</v>
@@ -5251,13 +5404,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D23">
         <v>7064.6</v>
@@ -5322,13 +5475,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
       </c>
       <c r="D24">
         <v>6858.7</v>
@@ -5393,13 +5546,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>7095.7</v>
@@ -5464,13 +5617,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>7699.1</v>
@@ -5535,13 +5688,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>7571.9</v>
@@ -5606,13 +5759,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>7164.7</v>
@@ -5677,13 +5830,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
       </c>
       <c r="D29">
         <v>7404.4</v>
@@ -5748,13 +5901,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>7565</v>
@@ -5819,13 +5972,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>7506.8</v>
@@ -5890,13 +6043,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>7931.5</v>
@@ -5961,13 +6114,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <v>8464.870000000001</v>
@@ -6032,13 +6185,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>9010.799999999999</v>
@@ -6103,13 +6256,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>9318.9</v>
@@ -6174,13 +6327,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D36">
         <v>9965.1</v>
@@ -6245,13 +6398,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>10479.8</v>
@@ -6316,13 +6469,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D38">
         <v>10987.6</v>
@@ -6387,13 +6540,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>10938.5</v>
@@ -6458,13 +6611,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D40">
         <v>10697.2</v>
@@ -6529,13 +6682,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>10439.7</v>
@@ -6600,13 +6753,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>10551.4</v>
@@ -6671,13 +6824,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>10411</v>
@@ -6742,13 +6895,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>10629.6</v>
@@ -6813,13 +6966,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>10938.6</v>
@@ -6884,13 +7037,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>11176.2</v>
@@ -6960,1185 +7113,1248 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>90.67</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>16.59</v>
-      </c>
-      <c r="D2">
-        <v>13.49</v>
       </c>
       <c r="E2">
         <v>13.49</v>
       </c>
       <c r="F2">
+        <v>13.49</v>
+      </c>
+      <c r="G2">
         <v>6.99</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>18.29</v>
-      </c>
-      <c r="H2">
-        <v>14.87</v>
       </c>
       <c r="I2">
         <v>14.87</v>
       </c>
       <c r="J2">
+        <v>14.87</v>
+      </c>
+      <c r="K2">
         <v>7.7</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>14.72</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>10.84</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>31.39</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>21.74</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>68.61</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>115.11</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>26.43</v>
-      </c>
-      <c r="D3">
-        <v>22.84</v>
       </c>
       <c r="E3">
         <v>22.84</v>
       </c>
       <c r="F3">
+        <v>22.84</v>
+      </c>
+      <c r="G3">
         <v>21.17</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>22.96</v>
-      </c>
-      <c r="H3">
-        <v>19.83</v>
       </c>
       <c r="I3">
         <v>19.83</v>
       </c>
       <c r="J3">
+        <v>19.83</v>
+      </c>
+      <c r="K3">
         <v>18.38</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>36.81</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>22.1</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>47.21</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>40.36</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>52.79</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>227.13</v>
+      </c>
+      <c r="D4">
+        <v>58.15</v>
+      </c>
+      <c r="E4">
+        <v>54.33</v>
+      </c>
+      <c r="F4">
+        <v>53.76</v>
+      </c>
+      <c r="G4">
+        <v>8.18</v>
+      </c>
+      <c r="H4">
+        <v>25.6</v>
+      </c>
+      <c r="I4">
+        <v>23.92</v>
+      </c>
+      <c r="J4">
+        <v>23.66</v>
+      </c>
+      <c r="K4">
+        <v>3.6</v>
+      </c>
+      <c r="L4">
+        <v>11.29</v>
+      </c>
+      <c r="M4">
+        <v>6.32</v>
+      </c>
+      <c r="N4">
+        <v>0.06</v>
+      </c>
+      <c r="O4">
+        <v>26.83</v>
+      </c>
+      <c r="P4">
+        <v>18.29</v>
+      </c>
+      <c r="Q4">
+        <v>73.17</v>
+      </c>
+      <c r="R4">
+        <v>17332.31</v>
+      </c>
+      <c r="S4">
+        <v>24.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>296.93</v>
+      </c>
+      <c r="D5">
+        <v>74.91</v>
+      </c>
+      <c r="E5">
+        <v>68.84999999999999</v>
+      </c>
+      <c r="F5">
+        <v>68.02</v>
+      </c>
+      <c r="G5">
+        <v>28.19</v>
+      </c>
+      <c r="H5">
+        <v>25.22</v>
+      </c>
+      <c r="I5">
+        <v>23.18</v>
+      </c>
+      <c r="J5">
+        <v>22.9</v>
+      </c>
+      <c r="K5">
+        <v>9.49</v>
+      </c>
+      <c r="L5">
+        <v>27.85</v>
+      </c>
+      <c r="M5">
+        <v>15.44</v>
+      </c>
+      <c r="N5">
+        <v>0.08</v>
+      </c>
+      <c r="O5">
+        <v>19.52</v>
+      </c>
+      <c r="P5">
+        <v>16.06</v>
+      </c>
+      <c r="Q5">
+        <v>80.48</v>
+      </c>
+      <c r="R5">
+        <v>8594.76</v>
+      </c>
+      <c r="S5">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>358.08</v>
+      </c>
+      <c r="D6">
+        <v>97.67</v>
+      </c>
+      <c r="E6">
+        <v>88.84</v>
+      </c>
+      <c r="F6">
+        <v>88.64</v>
+      </c>
+      <c r="G6">
+        <v>81.06999999999999</v>
+      </c>
+      <c r="H6">
+        <v>27.27</v>
+      </c>
+      <c r="I6">
+        <v>24.81</v>
+      </c>
+      <c r="J6">
+        <v>24.75</v>
+      </c>
+      <c r="K6">
+        <v>22.63</v>
+      </c>
+      <c r="L6">
+        <v>52.45</v>
+      </c>
+      <c r="M6">
+        <v>35.85</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>4.94</v>
+      </c>
+      <c r="P6">
+        <v>4.46</v>
+      </c>
+      <c r="Q6">
+        <v>95.06</v>
+      </c>
+      <c r="R6">
+        <v>2730.78</v>
+      </c>
+      <c r="S6">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>366.62</v>
+      </c>
+      <c r="D7">
+        <v>93.53</v>
+      </c>
+      <c r="E7">
+        <v>82.91</v>
+      </c>
+      <c r="F7">
+        <v>70.22</v>
+      </c>
+      <c r="G7">
+        <v>60.74</v>
+      </c>
+      <c r="H7">
+        <v>25.51</v>
+      </c>
+      <c r="I7">
+        <v>22.61</v>
+      </c>
+      <c r="J7">
+        <v>19.15</v>
+      </c>
+      <c r="K7">
+        <v>16.56</v>
+      </c>
+      <c r="L7">
+        <v>25.91</v>
+      </c>
+      <c r="M7">
+        <v>12.72</v>
+      </c>
+      <c r="N7">
+        <v>0.48</v>
+      </c>
+      <c r="O7">
+        <v>5.76</v>
+      </c>
+      <c r="P7">
+        <v>4.9</v>
+      </c>
+      <c r="Q7">
+        <v>94.23999999999999</v>
+      </c>
+      <c r="R7">
+        <v>11667.51</v>
+      </c>
+      <c r="S7">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>394.09</v>
+      </c>
+      <c r="D8">
+        <v>83.78</v>
+      </c>
+      <c r="E8">
+        <v>72.8</v>
+      </c>
+      <c r="F8">
+        <v>63.97</v>
+      </c>
+      <c r="G8">
+        <v>55.29</v>
+      </c>
+      <c r="H8">
+        <v>21.25</v>
+      </c>
+      <c r="I8">
+        <v>18.47</v>
+      </c>
+      <c r="J8">
+        <v>16.23</v>
+      </c>
+      <c r="K8">
+        <v>14.03</v>
+      </c>
+      <c r="L8">
+        <v>20.58</v>
+      </c>
+      <c r="M8">
+        <v>11.45</v>
+      </c>
+      <c r="N8">
+        <v>0.35</v>
+      </c>
+      <c r="O8">
+        <v>7.32</v>
+      </c>
+      <c r="P8">
+        <v>6.1</v>
+      </c>
+      <c r="Q8">
+        <v>92.68000000000001</v>
+      </c>
+      <c r="R8">
+        <v>9504.610000000001</v>
+      </c>
+      <c r="S8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>411.22</v>
+      </c>
+      <c r="D9">
+        <v>70.58</v>
+      </c>
+      <c r="E9">
+        <v>58.78</v>
+      </c>
+      <c r="F9">
+        <v>45.41</v>
+      </c>
+      <c r="G9">
+        <v>36.13</v>
+      </c>
+      <c r="H9">
+        <v>17.16</v>
+      </c>
+      <c r="I9">
+        <v>14.29</v>
+      </c>
+      <c r="J9">
+        <v>11.04</v>
+      </c>
+      <c r="K9">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="L9">
+        <v>13.37</v>
+      </c>
+      <c r="M9">
+        <v>7.25</v>
+      </c>
+      <c r="N9">
+        <v>0.33</v>
+      </c>
+      <c r="O9">
+        <v>11.15</v>
+      </c>
+      <c r="P9">
+        <v>8.41</v>
+      </c>
+      <c r="Q9">
+        <v>88.84999999999999</v>
+      </c>
+      <c r="R9">
+        <v>10163.24</v>
+      </c>
+      <c r="S9">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>468.53</v>
+      </c>
+      <c r="D10">
+        <v>84.56</v>
+      </c>
+      <c r="E10">
+        <v>72.3</v>
+      </c>
+      <c r="F10">
+        <v>63.79</v>
+      </c>
+      <c r="G10">
+        <v>50.94</v>
+      </c>
+      <c r="H10">
+        <v>18.04</v>
+      </c>
+      <c r="I10">
+        <v>15.43</v>
+      </c>
+      <c r="J10">
+        <v>13.61</v>
+      </c>
+      <c r="K10">
+        <v>10.87</v>
+      </c>
+      <c r="L10">
+        <v>15.6</v>
+      </c>
+      <c r="M10">
+        <v>8.98</v>
+      </c>
+      <c r="N10">
+        <v>0.26</v>
+      </c>
+      <c r="O10">
+        <v>9.82</v>
+      </c>
+      <c r="P10">
+        <v>7.91</v>
+      </c>
+      <c r="Q10">
+        <v>90.18000000000001</v>
+      </c>
+      <c r="R10">
+        <v>14401.11</v>
+      </c>
+      <c r="S10">
+        <v>13.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>697.86</v>
+      </c>
+      <c r="D11">
+        <v>155.53</v>
+      </c>
+      <c r="E11">
+        <v>137.24</v>
+      </c>
+      <c r="F11">
+        <v>138.66</v>
+      </c>
+      <c r="G11">
+        <v>115.01</v>
+      </c>
+      <c r="H11">
+        <v>22.28</v>
+      </c>
+      <c r="I11">
+        <v>19.66</v>
+      </c>
+      <c r="J11">
+        <v>19.86</v>
+      </c>
+      <c r="K11">
+        <v>16.48</v>
+      </c>
+      <c r="L11">
+        <v>31.26</v>
+      </c>
+      <c r="M11">
+        <v>18.22</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>17.38</v>
+      </c>
+      <c r="P11">
         <v>15</v>
       </c>
-      <c r="B4">
-        <v>227.13</v>
-      </c>
-      <c r="C4">
-        <v>58.15</v>
-      </c>
-      <c r="D4">
-        <v>54.33</v>
-      </c>
-      <c r="E4">
-        <v>53.76</v>
-      </c>
-      <c r="F4">
-        <v>8.18</v>
-      </c>
-      <c r="G4">
-        <v>25.6</v>
-      </c>
-      <c r="H4">
-        <v>23.92</v>
-      </c>
-      <c r="I4">
-        <v>23.66</v>
-      </c>
-      <c r="J4">
-        <v>3.6</v>
-      </c>
-      <c r="K4">
-        <v>11.29</v>
-      </c>
-      <c r="L4">
-        <v>6.32</v>
-      </c>
-      <c r="M4">
-        <v>0.06</v>
-      </c>
-      <c r="N4">
-        <v>26.83</v>
-      </c>
-      <c r="O4">
-        <v>18.29</v>
-      </c>
-      <c r="P4">
-        <v>73.17</v>
-      </c>
-      <c r="Q4">
-        <v>17332.31</v>
-      </c>
-      <c r="R4">
-        <v>24.59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>296.93</v>
-      </c>
-      <c r="C5">
-        <v>74.91</v>
-      </c>
-      <c r="D5">
-        <v>68.84999999999999</v>
-      </c>
-      <c r="E5">
-        <v>68.02</v>
-      </c>
-      <c r="F5">
-        <v>28.19</v>
-      </c>
-      <c r="G5">
-        <v>25.22</v>
-      </c>
-      <c r="H5">
-        <v>23.18</v>
-      </c>
-      <c r="I5">
-        <v>22.9</v>
-      </c>
-      <c r="J5">
+      <c r="Q11">
+        <v>82.62</v>
+      </c>
+      <c r="R11">
+        <v>39081.44</v>
+      </c>
+      <c r="S11">
+        <v>10.76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>199.45</v>
+      </c>
+      <c r="D12">
+        <v>34.88</v>
+      </c>
+      <c r="E12">
+        <v>29.95</v>
+      </c>
+      <c r="F12">
+        <v>30.5</v>
+      </c>
+      <c r="G12">
+        <v>23.48</v>
+      </c>
+      <c r="H12">
+        <v>17.48</v>
+      </c>
+      <c r="I12">
+        <v>15.01</v>
+      </c>
+      <c r="J12">
+        <v>15.29</v>
+      </c>
+      <c r="K12">
+        <v>11.77</v>
+      </c>
+      <c r="L12">
+        <v>20.04</v>
+      </c>
+      <c r="M12">
+        <v>13.25</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>25.67</v>
+      </c>
+      <c r="P12">
+        <v>21.22</v>
+      </c>
+      <c r="Q12">
+        <v>74.33</v>
+      </c>
+      <c r="R12">
+        <v>58658.06</v>
+      </c>
+      <c r="S12">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>216.67</v>
+      </c>
+      <c r="D13">
+        <v>46.73</v>
+      </c>
+      <c r="E13">
+        <v>41.09</v>
+      </c>
+      <c r="F13">
+        <v>40.54</v>
+      </c>
+      <c r="G13">
+        <v>33.27</v>
+      </c>
+      <c r="H13">
+        <v>21.56</v>
+      </c>
+      <c r="I13">
+        <v>18.96</v>
+      </c>
+      <c r="J13">
+        <v>18.7</v>
+      </c>
+      <c r="K13">
+        <v>15.35</v>
+      </c>
+      <c r="L13">
+        <v>23.75</v>
+      </c>
+      <c r="M13">
+        <v>15.59</v>
+      </c>
+      <c r="N13">
+        <v>0.01</v>
+      </c>
+      <c r="O13">
+        <v>36.09</v>
+      </c>
+      <c r="P13">
+        <v>30.86</v>
+      </c>
+      <c r="Q13">
+        <v>63.91</v>
+      </c>
+      <c r="R13">
+        <v>42900.15</v>
+      </c>
+      <c r="S13">
         <v>9.49</v>
       </c>
-      <c r="K5">
-        <v>27.85</v>
-      </c>
-      <c r="L5">
-        <v>15.44</v>
-      </c>
-      <c r="M5">
-        <v>0.08</v>
-      </c>
-      <c r="N5">
-        <v>19.52</v>
-      </c>
-      <c r="O5">
-        <v>16.06</v>
-      </c>
-      <c r="P5">
-        <v>80.48</v>
-      </c>
-      <c r="Q5">
-        <v>8594.76</v>
-      </c>
-      <c r="R5">
-        <v>9.449999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>358.08</v>
-      </c>
-      <c r="C6">
-        <v>97.67</v>
-      </c>
-      <c r="D6">
-        <v>88.84</v>
-      </c>
-      <c r="E6">
-        <v>88.64</v>
-      </c>
-      <c r="F6">
-        <v>81.06999999999999</v>
-      </c>
-      <c r="G6">
-        <v>27.27</v>
-      </c>
-      <c r="H6">
-        <v>24.81</v>
-      </c>
-      <c r="I6">
-        <v>24.75</v>
-      </c>
-      <c r="J6">
-        <v>22.63</v>
-      </c>
-      <c r="K6">
-        <v>52.45</v>
-      </c>
-      <c r="L6">
-        <v>35.85</v>
-      </c>
-      <c r="M6">
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>237.94</v>
+      </c>
+      <c r="D14">
+        <v>46.88</v>
+      </c>
+      <c r="E14">
+        <v>40.49</v>
+      </c>
+      <c r="F14">
+        <v>39.84</v>
+      </c>
+      <c r="G14">
+        <v>31.3</v>
+      </c>
+      <c r="H14">
+        <v>19.7</v>
+      </c>
+      <c r="I14">
+        <v>17.01</v>
+      </c>
+      <c r="J14">
+        <v>16.74</v>
+      </c>
+      <c r="K14">
+        <v>13.15</v>
+      </c>
+      <c r="L14">
+        <v>18.04</v>
+      </c>
+      <c r="M14">
+        <v>12.84</v>
+      </c>
+      <c r="N14">
+        <v>0.01</v>
+      </c>
+      <c r="O14">
+        <v>45.24</v>
+      </c>
+      <c r="P14">
+        <v>37.57</v>
+      </c>
+      <c r="Q14">
+        <v>54.76</v>
+      </c>
+      <c r="R14">
+        <v>42836.96</v>
+      </c>
+      <c r="S14">
+        <v>9.380000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>241.59</v>
+      </c>
+      <c r="D15">
+        <v>57.52</v>
+      </c>
+      <c r="E15">
+        <v>50.82</v>
+      </c>
+      <c r="F15">
+        <v>50.1</v>
+      </c>
+      <c r="G15">
+        <v>40.83</v>
+      </c>
+      <c r="H15">
+        <v>23.8</v>
+      </c>
+      <c r="I15">
+        <v>21.03</v>
+      </c>
+      <c r="J15">
+        <v>20.73</v>
+      </c>
+      <c r="K15">
+        <v>16.9</v>
+      </c>
+      <c r="L15">
+        <v>20.46</v>
+      </c>
+      <c r="M15">
+        <v>14.92</v>
+      </c>
+      <c r="N15">
+        <v>0.01</v>
+      </c>
+      <c r="O15">
+        <v>25.9</v>
+      </c>
+      <c r="P15">
+        <v>22.25</v>
+      </c>
+      <c r="Q15">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="R15">
+        <v>60730.8</v>
+      </c>
+      <c r="S15">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>276.79</v>
+      </c>
+      <c r="D16">
+        <v>62.33</v>
+      </c>
+      <c r="E16">
+        <v>55.63</v>
+      </c>
+      <c r="F16">
+        <v>55.19</v>
+      </c>
+      <c r="G16">
+        <v>44.54</v>
+      </c>
+      <c r="H16">
+        <v>22.51</v>
+      </c>
+      <c r="I16">
+        <v>20.09</v>
+      </c>
+      <c r="J16">
+        <v>19.93</v>
+      </c>
+      <c r="K16">
+        <v>16.09</v>
+      </c>
+      <c r="L16">
+        <v>21.21</v>
+      </c>
+      <c r="M16">
+        <v>14.43</v>
+      </c>
+      <c r="N16">
         <v>0</v>
       </c>
-      <c r="N6">
-        <v>4.94</v>
-      </c>
-      <c r="O6">
-        <v>4.46</v>
-      </c>
-      <c r="P6">
-        <v>95.06</v>
-      </c>
-      <c r="Q6">
-        <v>2730.78</v>
-      </c>
-      <c r="R6">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
+      <c r="O16">
+        <v>31.42</v>
+      </c>
+      <c r="P16">
+        <v>27.32</v>
+      </c>
+      <c r="Q16">
+        <v>68.58</v>
+      </c>
+      <c r="R16">
+        <v>75127.31</v>
+      </c>
+      <c r="S16">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>302.6</v>
+      </c>
+      <c r="D17">
+        <v>62.81</v>
+      </c>
+      <c r="E17">
+        <v>55.9</v>
+      </c>
+      <c r="F17">
+        <v>55.21</v>
+      </c>
+      <c r="G17">
+        <v>46.95</v>
+      </c>
+      <c r="H17">
+        <v>20.75</v>
+      </c>
+      <c r="I17">
+        <v>18.47</v>
+      </c>
+      <c r="J17">
+        <v>18.24</v>
+      </c>
+      <c r="K17">
+        <v>15.51</v>
+      </c>
+      <c r="L17">
+        <v>20.35</v>
+      </c>
+      <c r="M17">
+        <v>14.95</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>60.69</v>
+      </c>
+      <c r="P17">
+        <v>52.9</v>
+      </c>
+      <c r="Q17">
+        <v>39.31</v>
+      </c>
+      <c r="R17">
+        <v>52704.87</v>
+      </c>
+      <c r="S17">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>306.14</v>
+      </c>
+      <c r="D18">
+        <v>64.56999999999999</v>
+      </c>
+      <c r="E18">
+        <v>57.73</v>
+      </c>
+      <c r="F18">
+        <v>57.08</v>
+      </c>
+      <c r="G18">
+        <v>43.78</v>
+      </c>
+      <c r="H18">
+        <v>21.09</v>
+      </c>
+      <c r="I18">
+        <v>18.85</v>
+      </c>
+      <c r="J18">
+        <v>18.64</v>
+      </c>
+      <c r="K18">
+        <v>14.3</v>
+      </c>
+      <c r="L18">
+        <v>16.94</v>
+      </c>
+      <c r="M18">
+        <v>12.7</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>45.61</v>
+      </c>
+      <c r="P18">
+        <v>39.44</v>
+      </c>
+      <c r="Q18">
+        <v>54.39</v>
+      </c>
+      <c r="R18">
+        <v>94922.73</v>
+      </c>
+      <c r="S18">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>357.34</v>
+      </c>
+      <c r="D19">
+        <v>72.11</v>
+      </c>
+      <c r="E19">
+        <v>65.31999999999999</v>
+      </c>
+      <c r="F19">
+        <v>64.67</v>
+      </c>
+      <c r="G19">
+        <v>50.56</v>
+      </c>
+      <c r="H19">
+        <v>20.18</v>
+      </c>
+      <c r="I19">
+        <v>18.28</v>
+      </c>
+      <c r="J19">
+        <v>18.09</v>
+      </c>
+      <c r="K19">
+        <v>14.14</v>
+      </c>
+      <c r="L19">
+        <v>19</v>
+      </c>
+      <c r="M19">
+        <v>14.03</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="P19">
+        <v>78.27</v>
+      </c>
+      <c r="Q19">
+        <v>11.21</v>
+      </c>
+      <c r="R19">
+        <v>144395.17</v>
+      </c>
+      <c r="S19">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>437.87</v>
+      </c>
+      <c r="D20">
+        <v>60.54</v>
+      </c>
+      <c r="E20">
+        <v>52.2</v>
+      </c>
+      <c r="F20">
+        <v>50.34</v>
+      </c>
+      <c r="G20">
+        <v>38.78</v>
+      </c>
+      <c r="H20">
+        <v>13.82</v>
+      </c>
+      <c r="I20">
+        <v>11.92</v>
+      </c>
+      <c r="J20">
+        <v>11.49</v>
+      </c>
+      <c r="K20">
+        <v>8.85</v>
+      </c>
+      <c r="L20">
+        <v>15.21</v>
+      </c>
+      <c r="M20">
+        <v>10.48</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>123.63</v>
+      </c>
+      <c r="P20">
+        <v>101.74</v>
+      </c>
+      <c r="Q20">
+        <v>-23.63</v>
+      </c>
+      <c r="R20">
+        <v>106138.43</v>
+      </c>
+      <c r="S20">
         <v>18</v>
       </c>
-      <c r="B7">
-        <v>366.62</v>
-      </c>
-      <c r="C7">
-        <v>93.53</v>
-      </c>
-      <c r="D7">
-        <v>82.91</v>
-      </c>
-      <c r="E7">
-        <v>70.22</v>
-      </c>
-      <c r="F7">
-        <v>60.74</v>
-      </c>
-      <c r="G7">
-        <v>25.51</v>
-      </c>
-      <c r="H7">
-        <v>22.61</v>
-      </c>
-      <c r="I7">
-        <v>19.15</v>
-      </c>
-      <c r="J7">
-        <v>16.56</v>
-      </c>
-      <c r="K7">
-        <v>25.91</v>
-      </c>
-      <c r="L7">
-        <v>12.72</v>
-      </c>
-      <c r="M7">
-        <v>0.48</v>
-      </c>
-      <c r="N7">
-        <v>5.76</v>
-      </c>
-      <c r="O7">
-        <v>4.9</v>
-      </c>
-      <c r="P7">
-        <v>94.23999999999999</v>
-      </c>
-      <c r="Q7">
-        <v>11667.51</v>
-      </c>
-      <c r="R7">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>394.09</v>
-      </c>
-      <c r="C8">
-        <v>83.78</v>
-      </c>
-      <c r="D8">
-        <v>72.8</v>
-      </c>
-      <c r="E8">
-        <v>63.97</v>
-      </c>
-      <c r="F8">
-        <v>55.29</v>
-      </c>
-      <c r="G8">
-        <v>21.25</v>
-      </c>
-      <c r="H8">
-        <v>18.47</v>
-      </c>
-      <c r="I8">
-        <v>16.23</v>
-      </c>
-      <c r="J8">
-        <v>14.03</v>
-      </c>
-      <c r="K8">
-        <v>20.58</v>
-      </c>
-      <c r="L8">
-        <v>11.45</v>
-      </c>
-      <c r="M8">
-        <v>0.35</v>
-      </c>
-      <c r="N8">
-        <v>7.32</v>
-      </c>
-      <c r="O8">
-        <v>6.1</v>
-      </c>
-      <c r="P8">
-        <v>92.68000000000001</v>
-      </c>
-      <c r="Q8">
-        <v>9504.610000000001</v>
-      </c>
-      <c r="R8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>411.22</v>
-      </c>
-      <c r="C9">
-        <v>70.58</v>
-      </c>
-      <c r="D9">
-        <v>58.78</v>
-      </c>
-      <c r="E9">
-        <v>45.41</v>
-      </c>
-      <c r="F9">
-        <v>36.13</v>
-      </c>
-      <c r="G9">
-        <v>17.16</v>
-      </c>
-      <c r="H9">
-        <v>14.29</v>
-      </c>
-      <c r="I9">
-        <v>11.04</v>
-      </c>
-      <c r="J9">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="K9">
-        <v>13.37</v>
-      </c>
-      <c r="L9">
-        <v>7.25</v>
-      </c>
-      <c r="M9">
-        <v>0.33</v>
-      </c>
-      <c r="N9">
-        <v>11.15</v>
-      </c>
-      <c r="O9">
-        <v>8.41</v>
-      </c>
-      <c r="P9">
-        <v>88.84999999999999</v>
-      </c>
-      <c r="Q9">
-        <v>10163.24</v>
-      </c>
-      <c r="R9">
-        <v>11.29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>468.53</v>
-      </c>
-      <c r="C10">
-        <v>84.56</v>
-      </c>
-      <c r="D10">
-        <v>72.3</v>
-      </c>
-      <c r="E10">
-        <v>63.79</v>
-      </c>
-      <c r="F10">
-        <v>50.94</v>
-      </c>
-      <c r="G10">
-        <v>18.04</v>
-      </c>
-      <c r="H10">
-        <v>15.43</v>
-      </c>
-      <c r="I10">
-        <v>13.61</v>
-      </c>
-      <c r="J10">
-        <v>10.87</v>
-      </c>
-      <c r="K10">
-        <v>15.6</v>
-      </c>
-      <c r="L10">
-        <v>8.98</v>
-      </c>
-      <c r="M10">
-        <v>0.26</v>
-      </c>
-      <c r="N10">
-        <v>9.82</v>
-      </c>
-      <c r="O10">
-        <v>7.91</v>
-      </c>
-      <c r="P10">
-        <v>90.18000000000001</v>
-      </c>
-      <c r="Q10">
-        <v>14401.11</v>
-      </c>
-      <c r="R10">
-        <v>13.29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>697.86</v>
-      </c>
-      <c r="C11">
-        <v>155.53</v>
-      </c>
-      <c r="D11">
-        <v>137.24</v>
-      </c>
-      <c r="E11">
-        <v>138.66</v>
-      </c>
-      <c r="F11">
-        <v>115.01</v>
-      </c>
-      <c r="G11">
-        <v>22.28</v>
-      </c>
-      <c r="H11">
-        <v>19.66</v>
-      </c>
-      <c r="I11">
-        <v>19.86</v>
-      </c>
-      <c r="J11">
-        <v>16.48</v>
-      </c>
-      <c r="K11">
-        <v>31.26</v>
-      </c>
-      <c r="L11">
-        <v>18.22</v>
-      </c>
-      <c r="M11">
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>430.99</v>
+      </c>
+      <c r="D21">
+        <v>37.12</v>
+      </c>
+      <c r="E21">
+        <v>28.78</v>
+      </c>
+      <c r="F21">
+        <v>26.26</v>
+      </c>
+      <c r="G21">
+        <v>21.79</v>
+      </c>
+      <c r="H21">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="I21">
+        <v>6.67</v>
+      </c>
+      <c r="J21">
+        <v>6.09</v>
+      </c>
+      <c r="K21">
+        <v>5.05</v>
+      </c>
+      <c r="L21">
+        <v>9.18</v>
+      </c>
+      <c r="M21">
+        <v>6.14</v>
+      </c>
+      <c r="N21">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>17.38</v>
-      </c>
-      <c r="O11">
-        <v>15</v>
-      </c>
-      <c r="P11">
-        <v>82.62</v>
-      </c>
-      <c r="Q11">
-        <v>39081.44</v>
-      </c>
-      <c r="R11">
-        <v>10.76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>199.45</v>
-      </c>
-      <c r="C12">
-        <v>34.88</v>
-      </c>
-      <c r="D12">
-        <v>29.95</v>
-      </c>
-      <c r="E12">
-        <v>30.5</v>
-      </c>
-      <c r="F12">
-        <v>23.48</v>
-      </c>
-      <c r="G12">
-        <v>17.48</v>
-      </c>
-      <c r="H12">
-        <v>15.01</v>
-      </c>
-      <c r="I12">
-        <v>15.29</v>
-      </c>
-      <c r="J12">
-        <v>11.77</v>
-      </c>
-      <c r="K12">
-        <v>20.04</v>
-      </c>
-      <c r="L12">
-        <v>13.25</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>25.67</v>
-      </c>
-      <c r="O12">
-        <v>21.22</v>
-      </c>
-      <c r="P12">
-        <v>74.33</v>
-      </c>
-      <c r="Q12">
-        <v>58658.06</v>
-      </c>
-      <c r="R12">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>216.67</v>
-      </c>
-      <c r="C13">
-        <v>46.73</v>
-      </c>
-      <c r="D13">
-        <v>41.09</v>
-      </c>
-      <c r="E13">
-        <v>40.54</v>
-      </c>
-      <c r="F13">
-        <v>33.27</v>
-      </c>
-      <c r="G13">
-        <v>21.56</v>
-      </c>
-      <c r="H13">
-        <v>18.96</v>
-      </c>
-      <c r="I13">
-        <v>18.7</v>
-      </c>
-      <c r="J13">
-        <v>15.35</v>
-      </c>
-      <c r="K13">
-        <v>23.75</v>
-      </c>
-      <c r="L13">
-        <v>15.59</v>
-      </c>
-      <c r="M13">
-        <v>0.01</v>
-      </c>
-      <c r="N13">
-        <v>36.09</v>
-      </c>
-      <c r="O13">
-        <v>30.86</v>
-      </c>
-      <c r="P13">
-        <v>63.91</v>
-      </c>
-      <c r="Q13">
-        <v>42900.15</v>
-      </c>
-      <c r="R13">
-        <v>9.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>237.94</v>
-      </c>
-      <c r="C14">
-        <v>46.88</v>
-      </c>
-      <c r="D14">
-        <v>40.49</v>
-      </c>
-      <c r="E14">
-        <v>39.84</v>
-      </c>
-      <c r="F14">
-        <v>31.3</v>
-      </c>
-      <c r="G14">
-        <v>19.7</v>
-      </c>
-      <c r="H14">
-        <v>17.01</v>
-      </c>
-      <c r="I14">
-        <v>16.74</v>
-      </c>
-      <c r="J14">
-        <v>13.15</v>
-      </c>
-      <c r="K14">
-        <v>18.04</v>
-      </c>
-      <c r="L14">
-        <v>12.84</v>
-      </c>
-      <c r="M14">
-        <v>0.01</v>
-      </c>
-      <c r="N14">
-        <v>45.24</v>
-      </c>
-      <c r="O14">
-        <v>37.57</v>
-      </c>
-      <c r="P14">
-        <v>54.76</v>
-      </c>
-      <c r="Q14">
-        <v>42836.96</v>
-      </c>
-      <c r="R14">
-        <v>9.380000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>241.59</v>
-      </c>
-      <c r="C15">
-        <v>57.52</v>
-      </c>
-      <c r="D15">
-        <v>50.82</v>
-      </c>
-      <c r="E15">
-        <v>50.1</v>
-      </c>
-      <c r="F15">
-        <v>40.83</v>
-      </c>
-      <c r="G15">
-        <v>23.8</v>
-      </c>
-      <c r="H15">
-        <v>21.03</v>
-      </c>
-      <c r="I15">
-        <v>20.73</v>
-      </c>
-      <c r="J15">
-        <v>16.9</v>
-      </c>
-      <c r="K15">
-        <v>20.46</v>
-      </c>
-      <c r="L15">
-        <v>14.92</v>
-      </c>
-      <c r="M15">
-        <v>0.01</v>
-      </c>
-      <c r="N15">
-        <v>25.9</v>
-      </c>
-      <c r="O15">
-        <v>22.25</v>
-      </c>
-      <c r="P15">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="Q15">
-        <v>60730.8</v>
-      </c>
-      <c r="R15">
-        <v>10.78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>276.79</v>
-      </c>
-      <c r="C16">
-        <v>62.33</v>
-      </c>
-      <c r="D16">
-        <v>55.63</v>
-      </c>
-      <c r="E16">
-        <v>55.19</v>
-      </c>
-      <c r="F16">
-        <v>44.54</v>
-      </c>
-      <c r="G16">
-        <v>22.51</v>
-      </c>
-      <c r="H16">
-        <v>20.09</v>
-      </c>
-      <c r="I16">
-        <v>19.93</v>
-      </c>
-      <c r="J16">
-        <v>16.09</v>
-      </c>
-      <c r="K16">
-        <v>21.21</v>
-      </c>
-      <c r="L16">
-        <v>14.43</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>31.42</v>
-      </c>
-      <c r="O16">
-        <v>27.32</v>
-      </c>
-      <c r="P16">
-        <v>68.58</v>
-      </c>
-      <c r="Q16">
-        <v>75127.31</v>
-      </c>
-      <c r="R16">
-        <v>12.26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>302.6</v>
-      </c>
-      <c r="C17">
-        <v>62.81</v>
-      </c>
-      <c r="D17">
-        <v>55.9</v>
-      </c>
-      <c r="E17">
-        <v>55.21</v>
-      </c>
-      <c r="F17">
-        <v>46.95</v>
-      </c>
-      <c r="G17">
-        <v>20.75</v>
-      </c>
-      <c r="H17">
-        <v>18.47</v>
-      </c>
-      <c r="I17">
-        <v>18.24</v>
-      </c>
-      <c r="J17">
-        <v>15.51</v>
-      </c>
-      <c r="K17">
-        <v>20.35</v>
-      </c>
-      <c r="L17">
-        <v>14.95</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>60.69</v>
-      </c>
-      <c r="O17">
-        <v>52.9</v>
-      </c>
-      <c r="P17">
-        <v>39.31</v>
-      </c>
-      <c r="Q17">
-        <v>52704.87</v>
-      </c>
-      <c r="R17">
-        <v>8.69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>306.14</v>
-      </c>
-      <c r="C18">
-        <v>64.56999999999999</v>
-      </c>
-      <c r="D18">
-        <v>57.73</v>
-      </c>
-      <c r="E18">
-        <v>57.08</v>
-      </c>
-      <c r="F18">
-        <v>43.78</v>
-      </c>
-      <c r="G18">
-        <v>21.09</v>
-      </c>
-      <c r="H18">
-        <v>18.85</v>
-      </c>
-      <c r="I18">
-        <v>18.64</v>
-      </c>
-      <c r="J18">
-        <v>14.3</v>
-      </c>
-      <c r="K18">
-        <v>16.94</v>
-      </c>
-      <c r="L18">
-        <v>12.7</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>45.61</v>
-      </c>
-      <c r="O18">
-        <v>39.44</v>
-      </c>
-      <c r="P18">
-        <v>54.39</v>
-      </c>
-      <c r="Q18">
-        <v>94922.73</v>
-      </c>
-      <c r="R18">
-        <v>15.18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>357.34</v>
-      </c>
-      <c r="C19">
-        <v>72.11</v>
-      </c>
-      <c r="D19">
-        <v>65.31999999999999</v>
-      </c>
-      <c r="E19">
-        <v>64.67</v>
-      </c>
-      <c r="F19">
-        <v>50.56</v>
-      </c>
-      <c r="G19">
-        <v>20.18</v>
-      </c>
-      <c r="H19">
-        <v>18.28</v>
-      </c>
-      <c r="I19">
-        <v>18.09</v>
-      </c>
-      <c r="J19">
-        <v>14.14</v>
-      </c>
-      <c r="K19">
-        <v>19</v>
-      </c>
-      <c r="L19">
-        <v>14.03</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>88.79000000000001</v>
-      </c>
-      <c r="O19">
-        <v>78.27</v>
-      </c>
-      <c r="P19">
-        <v>11.21</v>
-      </c>
-      <c r="Q19">
-        <v>144395.17</v>
-      </c>
-      <c r="R19">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>437.87</v>
-      </c>
-      <c r="C20">
-        <v>60.54</v>
-      </c>
-      <c r="D20">
-        <v>52.2</v>
-      </c>
-      <c r="E20">
-        <v>50.34</v>
-      </c>
-      <c r="F20">
-        <v>38.78</v>
-      </c>
-      <c r="G20">
-        <v>13.82</v>
-      </c>
-      <c r="H20">
-        <v>11.92</v>
-      </c>
-      <c r="I20">
-        <v>11.49</v>
-      </c>
-      <c r="J20">
-        <v>8.85</v>
-      </c>
-      <c r="K20">
-        <v>15.21</v>
-      </c>
-      <c r="L20">
-        <v>10.48</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>123.63</v>
-      </c>
-      <c r="O20">
-        <v>101.74</v>
-      </c>
-      <c r="P20">
-        <v>-23.63</v>
-      </c>
-      <c r="Q20">
-        <v>106138.43</v>
-      </c>
-      <c r="R20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>430.99</v>
-      </c>
-      <c r="C21">
-        <v>37.12</v>
-      </c>
-      <c r="D21">
-        <v>28.78</v>
-      </c>
-      <c r="E21">
-        <v>26.26</v>
-      </c>
-      <c r="F21">
-        <v>21.79</v>
-      </c>
-      <c r="G21">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="H21">
-        <v>6.67</v>
-      </c>
-      <c r="I21">
-        <v>6.09</v>
-      </c>
-      <c r="J21">
-        <v>5.05</v>
-      </c>
-      <c r="K21">
-        <v>9.18</v>
-      </c>
-      <c r="L21">
-        <v>6.14</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="O21">
         <v>201.55</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>145.75</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-101.55</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>120617.27</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>33.26</v>
       </c>
     </row>
